--- a/abs_results/median-processing-time-all-functions.xlsx
+++ b/abs_results/median-processing-time-all-functions.xlsx
@@ -5,22 +5,24 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jreillai\Desktop\Cloud function ping job\loaded\AWS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\FAAS\abs_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="median-processing-time-recur" sheetId="1" r:id="rId1"/>
-    <sheet name="median processing-time-linear" sheetId="2" r:id="rId2"/>
+    <sheet name="sequential processing" sheetId="4" r:id="rId2"/>
+    <sheet name="median processing-time-linear" sheetId="2" r:id="rId3"/>
+    <sheet name="Azure cold start error" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>Date</t>
   </si>
@@ -63,13 +65,28 @@
   <si>
     <t>Recursive function, Azure</t>
   </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>percentile_duration_50</t>
+  </si>
+  <si>
+    <t>percentile_duration_90</t>
+  </si>
+  <si>
+    <t>percentile_duration_95</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="[$-409]h:mm:ss\ AM/PM;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]h:mm:ss\ AM/PM;@"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -548,9 +565,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2155,11 +2173,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="389178992"/>
-        <c:axId val="389186440"/>
+        <c:axId val="168612992"/>
+        <c:axId val="168191320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="389178992"/>
+        <c:axId val="168612992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2202,7 +2220,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="389186440"/>
+        <c:crossAx val="168191320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2210,7 +2228,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="389186440"/>
+        <c:axId val="168191320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2261,7 +2279,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="389178992"/>
+        <c:crossAx val="168612992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3885,11 +3903,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="389191144"/>
-        <c:axId val="389182912"/>
+        <c:axId val="217505760"/>
+        <c:axId val="217522528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="389191144"/>
+        <c:axId val="217505760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3932,7 +3950,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="389182912"/>
+        <c:crossAx val="217522528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3940,7 +3958,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="389182912"/>
+        <c:axId val="217522528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3991,7 +4009,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="389191144"/>
+        <c:crossAx val="217505760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4526,11 +4544,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="389183304"/>
-        <c:axId val="389182520"/>
+        <c:axId val="216915776"/>
+        <c:axId val="217599400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="389183304"/>
+        <c:axId val="216915776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4573,7 +4591,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="389182520"/>
+        <c:crossAx val="217599400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4581,7 +4599,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="389182520"/>
+        <c:axId val="217599400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4632,7 +4650,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="389183304"/>
+        <c:crossAx val="216915776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5161,11 +5179,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="389180952"/>
-        <c:axId val="389182128"/>
+        <c:axId val="217586600"/>
+        <c:axId val="65391456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="389180952"/>
+        <c:axId val="217586600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5208,7 +5226,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="389182128"/>
+        <c:crossAx val="65391456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5216,7 +5234,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="389182128"/>
+        <c:axId val="65391456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5267,7 +5285,2003 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="389180952"/>
+        <c:crossAx val="217586600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Azure recursive function - cold start invocation delays</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Azure cold start error'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>percentile_duration_50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Azure cold start error'!$A$2:$A$137</c:f>
+              <c:numCache>
+                <c:formatCode>[$-409]h:mm:ss\ AM/PM;@</c:formatCode>
+                <c:ptCount val="136"/>
+                <c:pt idx="0">
+                  <c:v>43230.875</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43229.916666666664</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43230.958333333336</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43229.791666666664</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43229.708333333336</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43229.875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43229.083333333336</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43229</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43228.958333333336</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43229.125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43229.208333333336</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43229.291666666664</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43232.541666666664</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43232.333333333336</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43232.375</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43232.791666666664</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43229.75</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43228.916666666664</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43231.375</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43231.166666666664</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43231.208333333336</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43231.083333333336</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43231</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43231.041666666664</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43231.458333333336</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43232.291666666664</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43232.041666666664</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43232.083333333336</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43232.125</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43232</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43232.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43234.375</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43232.208333333336</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43231.916666666664</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43231.958333333336</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43232.25</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43234</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43233.583333333336</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43233.625</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43231.125</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43230.833333333336</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43231.25</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43230.916666666664</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43231.416666666664</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43231.708333333336</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43229.583333333336</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43229.666666666664</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43229.625</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43229.458333333336</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43229.541666666664</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43230.625</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43230.416666666664</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43230.208333333336</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43230.25</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43229.958333333336</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>43230.041666666664</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>43230.083333333336</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>43230.291666666664</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>43230.333333333336</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>43230.583333333336</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>43230</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>43230.125</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>43230.166666666664</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>43230.458333333336</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>43230.541666666664</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>43230.75</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>43231.666666666664</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>43233.791666666664</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>43234.291666666664</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>43229.5</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>43229.333333333336</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>43229.375</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>43229.041666666664</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>43231.833333333336</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>43231.75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>43231.291666666664</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>43231.625</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>43230.5</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>43229.833333333336</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>43230.666666666664</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>43229.416666666664</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>43229.166666666664</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>43231.875</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>43232.416666666664</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>43232.458333333336</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>43232.166666666664</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>43230.375</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>43233.375</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>43234.125</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>43231.5</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>43229.25</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>43231.333333333336</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>43231.583333333336</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>43233.291666666664</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>43234.791666666664</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>43232.916666666664</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>43233.416666666664</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>43233.166666666664</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>43232.833333333336</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>43232.666666666664</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>43234.875</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>43230.791666666664</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>43234.708333333336</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>43234.041666666664</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>43234.25</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>43233.25</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>43231.791666666664</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>43231.541666666664</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>43232.875</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>43233.916666666664</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>43234.458333333336</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>43230.708333333336</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>43234.208333333336</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>43234.833333333336</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>43233.333333333336</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>43232.708333333336</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>43233.458333333336</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>43233.875</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>43232.75</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>43234.75</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>43233.5</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>43233</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>43233.541666666664</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>43233.708333333336</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>43233.75</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>43234.166666666664</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>43233.666666666664</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>43233.208333333336</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>43234.583333333336</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>43234.083333333336</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>43233.083333333336</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>43233.833333333336</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>43232.583333333336</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>43232.625</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>43233.041666666664</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>43233.125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Azure cold start error'!$B$2:$B$137</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="136"/>
+                <c:pt idx="0">
+                  <c:v>20569.681</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25766.8904</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20140.7647</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10026.4542</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10049.2551</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10028.840899999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9965.7099999999991</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10052.6404</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9925.0874000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9963.2621999999992</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9911.0591999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9879.1201000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>34080.292849999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>35954.748299999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18672.123800000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7196.1693999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10078.001099999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10058.2737</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25828.095799999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12560.8462</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>29953.267349999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14177.7634</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>16301.4609</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>13220.300800000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>21180.230500000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>15384.153700000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>29255.721825000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>11315.937400000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>13839.415499999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10877.972100000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>12610.835999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7295.2461999999996</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>28867.596099999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>29328.544999999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>19406.947800000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>32103.291850000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6527.9567999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7431.9971999999998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7134.2902000000004</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>25349.886699999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>18369.2219</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>18142.0939</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>12779.998600000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9868.5869000000002</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>14830.675300000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>10032.4936</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>10036.3815</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>10113.881299999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>10031.077300000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>10036.207700000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>10120.1906</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>10344.070299999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>24929.785899999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>12248.4375</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>19436.725050000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>19208.069100000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>24474.137699999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>11227.939700000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>14165.001249999999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>28496.134750000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>24048.2268</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>19897.128000000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>14669.648300000001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>18651.107974999999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>10641.227199999999</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>32314.010200000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>10774.8933</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6852.7048000000004</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6973.9359999999997</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>10151.062</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>9984.8369000000002</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>10040.0659</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>10037.8899</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>29536.018899999999</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>18738.299074999999</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>17131.823899999999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>18562.1587</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>10505.0026</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>10013.782499999999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>10136.170899999999</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>10171.8673</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>9915.7772000000004</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>18906.0553</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>27635.6728</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>13715.6013</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>20140.693800000001</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>14062.136500000001</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>7218.7406000000001</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>7299.27</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>10658.7053</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9877.7577999999994</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>26119.77565</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>10889.5363</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>6870.6758</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>6889.2453999999998</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>7895.6986999999999</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>6804.5969999999998</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>7421.0896000000002</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>7622.5042000000003</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>8120.2039999999997</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>9451.0740000000005</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>15074.514499999999</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>6750.9008999999996</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>6876.5388999999996</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>7466.6652999999997</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>7266.0123999999996</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>20104.032299999999</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>10629.100399999999</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>7270.1531999999997</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>7215.9522999999999</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>7341.8648000000003</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>13832.4329</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>7320.9219000000003</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>6434.4601000000002</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>7816.3092999999999</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>15494.7863</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>6956.1661000000004</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>6968.3993</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>6380.1979000000001</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>7040.4004000000004</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>6699.3100999999997</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>6426.2995000000001</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>6846.9633999999996</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>6661.2637999999997</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>8209.6738999999998</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>7218.1553999999996</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>6681.8684000000003</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>7865.6539000000002</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>7370.6356999999998</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>6960.5689000000002</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>7935.0505000000003</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>7178.7987000000003</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>8155.8131000000003</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>6772.5255999999999</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>6884.2936</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>7741.6800999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Azure cold start error'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>percentile_duration_95</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Azure cold start error'!$A$2:$A$137</c:f>
+              <c:numCache>
+                <c:formatCode>[$-409]h:mm:ss\ AM/PM;@</c:formatCode>
+                <c:ptCount val="136"/>
+                <c:pt idx="0">
+                  <c:v>43230.875</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43229.916666666664</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43230.958333333336</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43229.791666666664</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43229.708333333336</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43229.875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43229.083333333336</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43229</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43228.958333333336</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43229.125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43229.208333333336</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43229.291666666664</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43232.541666666664</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43232.333333333336</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43232.375</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43232.791666666664</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43229.75</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43228.916666666664</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43231.375</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43231.166666666664</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43231.208333333336</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43231.083333333336</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43231</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43231.041666666664</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43231.458333333336</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43232.291666666664</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43232.041666666664</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43232.083333333336</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43232.125</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43232</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43232.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43234.375</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43232.208333333336</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43231.916666666664</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43231.958333333336</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43232.25</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43234</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43233.583333333336</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43233.625</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43231.125</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43230.833333333336</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43231.25</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43230.916666666664</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43231.416666666664</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43231.708333333336</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43229.583333333336</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43229.666666666664</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43229.625</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43229.458333333336</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43229.541666666664</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43230.625</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43230.416666666664</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43230.208333333336</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43230.25</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43229.958333333336</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>43230.041666666664</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>43230.083333333336</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>43230.291666666664</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>43230.333333333336</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>43230.583333333336</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>43230</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>43230.125</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>43230.166666666664</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>43230.458333333336</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>43230.541666666664</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>43230.75</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>43231.666666666664</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>43233.791666666664</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>43234.291666666664</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>43229.5</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>43229.333333333336</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>43229.375</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>43229.041666666664</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>43231.833333333336</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>43231.75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>43231.291666666664</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>43231.625</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>43230.5</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>43229.833333333336</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>43230.666666666664</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>43229.416666666664</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>43229.166666666664</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>43231.875</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>43232.416666666664</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>43232.458333333336</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>43232.166666666664</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>43230.375</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>43233.375</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>43234.125</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>43231.5</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>43229.25</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>43231.333333333336</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>43231.583333333336</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>43233.291666666664</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>43234.791666666664</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>43232.916666666664</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>43233.416666666664</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>43233.166666666664</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>43232.833333333336</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>43232.666666666664</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>43234.875</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>43230.791666666664</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>43234.708333333336</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>43234.041666666664</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>43234.25</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>43233.25</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>43231.791666666664</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>43231.541666666664</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>43232.875</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>43233.916666666664</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>43234.458333333336</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>43230.708333333336</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>43234.208333333336</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>43234.833333333336</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>43233.333333333336</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>43232.708333333336</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>43233.458333333336</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>43233.875</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>43232.75</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>43234.75</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>43233.5</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>43233</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>43233.541666666664</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>43233.708333333336</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>43233.75</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>43234.166666666664</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>43233.666666666664</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>43233.208333333336</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>43234.583333333336</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>43234.083333333336</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>43233.083333333336</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>43233.833333333336</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>43232.583333333336</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>43232.625</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>43233.041666666664</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>43233.125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Azure cold start error'!$D$2:$D$137</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="136"/>
+                <c:pt idx="0">
+                  <c:v>466292.97529999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>387795.91840000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>296220.88660000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10209.608399999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10236.579</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10181.531300000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10473.225</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10323.1988</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10193.8986</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10190.565500000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10258.0702</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10077.642400000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>351179.5723</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>361943.78619999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>300185.77220000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7196.1693999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11741.4349</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10620.225399999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>327840.75689999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>355966.54350000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>468622.26689999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>393213.17379999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>56218.627</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>331977.6789</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>384168.35749999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>363645.34970000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>374428.1606</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>235565.77989999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>355460.53749999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>13109.647199999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>315192.74570000003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7295.2461999999996</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>382441.27299999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>419886.44390000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>341719.48499999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>494569.47389999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>10262.197399999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7431.9971999999998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7134.2902000000004</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>375940.67609999998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>266924.77230000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>336946.8982</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>330645.23790000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>10501.265600000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>202806.019</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>10146.789199999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>10265.628000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>10424.039500000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>10277.0129</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>10358.8933</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>10971.7358</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>10835.9755</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>169485.7745</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>343296.56430000003</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>300426.68459999998</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>339796.96360000002</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>61041.895499999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>357134.3064</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>321261.39870000002</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>381412.11349999998</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>503244.83250000002</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>301360.8063</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>357278.3358</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>344471.61839999998</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>11723.573700000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>83933.765299999999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>12064.772199999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6852.7048000000004</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6973.9359999999997</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>10448.6162</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>10543.373600000001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>10615.0165</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>10353.119199999999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>378776.40130000003</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>323571.0049</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>101436.4522</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>300328.83929999999</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>11060.130499999999</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>10824.04</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>10444.5512</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>10615.368399999999</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>10151.3568</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>210245.2317</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>316381.02370000002</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>334667.04310000001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>300572.48330000002</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>424269.54499999998</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>7218.7406000000001</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>7299.27</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>11743.007900000001</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>10143.1913</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>321082.28980000003</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>12769.7889</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>6870.6758</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>6889.2453999999998</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>7895.6986999999999</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>6804.5969999999998</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>7421.0896000000002</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>7622.5042000000003</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>8120.2039999999997</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>9451.0740000000005</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>369374.92489999998</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>6750.9008999999996</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>6876.5388999999996</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>7466.6652999999997</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>7266.0123999999996</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>306910.02389999997</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>12977.759700000001</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>7270.1531999999997</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>7215.9522999999999</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>7341.8648000000003</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>379550.63559999998</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>7320.9219000000003</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>6434.4601000000002</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>7816.3092999999999</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>15494.7863</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>6956.1661000000004</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>6968.3993</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>6380.1979000000001</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>11854.9625</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>6699.3100999999997</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>10576.1963</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>6846.9633999999996</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>6661.2637999999997</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>8209.6738999999998</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>7218.1553999999996</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>6681.8684000000003</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>7865.6539000000002</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>7370.6356999999998</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>6960.5689000000002</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>7935.0505000000003</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>7178.7987000000003</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>8155.8131000000003</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>6772.5255999999999</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>6884.2936</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>7741.6800999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="65392240"/>
+        <c:axId val="217708520"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="65392240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="[$-409]h:mm:ss\ AM/PM;@" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="217708520"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="217708520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="65392240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5469,6 +7483,46 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7572,6 +9626,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -7685,6 +10255,41 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -7967,8 +10572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9716,10 +12321,417 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="2" max="3" width="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>43235.924690046297</v>
+      </c>
+      <c r="B2">
+        <v>5219</v>
+      </c>
+      <c r="C2">
+        <v>3266</v>
+      </c>
+      <c r="D2">
+        <v>10484</v>
+      </c>
+      <c r="E2">
+        <v>20719</v>
+      </c>
+      <c r="F2">
+        <v>6922</v>
+      </c>
+      <c r="G2">
+        <v>5422</v>
+      </c>
+      <c r="H2">
+        <v>12125</v>
+      </c>
+      <c r="I2">
+        <v>22625</v>
+      </c>
+      <c r="J2">
+        <v>10609</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>43235.981364699073</v>
+      </c>
+      <c r="B3">
+        <v>5281</v>
+      </c>
+      <c r="C3">
+        <v>3281</v>
+      </c>
+      <c r="D3">
+        <v>10578</v>
+      </c>
+      <c r="E3">
+        <v>20672</v>
+      </c>
+      <c r="F3">
+        <v>7078</v>
+      </c>
+      <c r="G3">
+        <v>5375</v>
+      </c>
+      <c r="H3">
+        <v>12312</v>
+      </c>
+      <c r="I3">
+        <v>24500</v>
+      </c>
+      <c r="J3">
+        <v>10953</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>43236.056847569445</v>
+      </c>
+      <c r="B4">
+        <v>5391</v>
+      </c>
+      <c r="C4">
+        <v>3297</v>
+      </c>
+      <c r="D4">
+        <v>10562</v>
+      </c>
+      <c r="E4">
+        <v>20953</v>
+      </c>
+      <c r="F4">
+        <v>7281</v>
+      </c>
+      <c r="G4">
+        <v>5484</v>
+      </c>
+      <c r="H4">
+        <v>12109</v>
+      </c>
+      <c r="I4">
+        <v>24703</v>
+      </c>
+      <c r="J4">
+        <v>11156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>43236.157742476855</v>
+      </c>
+      <c r="B5">
+        <v>5375</v>
+      </c>
+      <c r="C5">
+        <v>3281</v>
+      </c>
+      <c r="D5">
+        <v>10562</v>
+      </c>
+      <c r="E5">
+        <v>21109</v>
+      </c>
+      <c r="F5">
+        <v>7187</v>
+      </c>
+      <c r="G5">
+        <v>5516</v>
+      </c>
+      <c r="H5">
+        <v>12687</v>
+      </c>
+      <c r="I5">
+        <v>24734</v>
+      </c>
+      <c r="J5">
+        <v>14266</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>43236.218826736113</v>
+      </c>
+      <c r="B6">
+        <v>5422</v>
+      </c>
+      <c r="C6">
+        <v>3016</v>
+      </c>
+      <c r="D6">
+        <v>10609</v>
+      </c>
+      <c r="E6">
+        <v>20969</v>
+      </c>
+      <c r="F6">
+        <v>6844</v>
+      </c>
+      <c r="G6">
+        <v>5344</v>
+      </c>
+      <c r="H6">
+        <v>11984</v>
+      </c>
+      <c r="I6">
+        <v>24891</v>
+      </c>
+      <c r="J6">
+        <v>11062</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>43236.277465624997</v>
+      </c>
+      <c r="B7">
+        <v>5297</v>
+      </c>
+      <c r="C7">
+        <v>3281</v>
+      </c>
+      <c r="D7">
+        <v>10641</v>
+      </c>
+      <c r="E7">
+        <v>21141</v>
+      </c>
+      <c r="F7">
+        <v>7094</v>
+      </c>
+      <c r="G7">
+        <v>5515</v>
+      </c>
+      <c r="H7">
+        <v>12234</v>
+      </c>
+      <c r="I7">
+        <v>23906</v>
+      </c>
+      <c r="J7">
+        <v>11094</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>43236.336012500004</v>
+      </c>
+      <c r="B8">
+        <v>5266</v>
+      </c>
+      <c r="C8">
+        <v>2922</v>
+      </c>
+      <c r="D8">
+        <v>10609</v>
+      </c>
+      <c r="E8">
+        <v>21219</v>
+      </c>
+      <c r="F8">
+        <v>6859</v>
+      </c>
+      <c r="G8">
+        <v>5344</v>
+      </c>
+      <c r="H8">
+        <v>12953</v>
+      </c>
+      <c r="I8">
+        <v>24094</v>
+      </c>
+      <c r="J8">
+        <v>10656</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>43236.420894791663</v>
+      </c>
+      <c r="B9">
+        <v>5297</v>
+      </c>
+      <c r="C9">
+        <v>3281</v>
+      </c>
+      <c r="D9">
+        <v>10531</v>
+      </c>
+      <c r="E9">
+        <v>20984</v>
+      </c>
+      <c r="F9">
+        <v>7281</v>
+      </c>
+      <c r="G9">
+        <v>5437</v>
+      </c>
+      <c r="H9">
+        <v>12672</v>
+      </c>
+      <c r="I9">
+        <v>24391</v>
+      </c>
+      <c r="J9">
+        <v>11141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>43236.600116203706</v>
+      </c>
+      <c r="B10">
+        <v>5297</v>
+      </c>
+      <c r="C10">
+        <v>3312</v>
+      </c>
+      <c r="D10">
+        <v>10516</v>
+      </c>
+      <c r="E10">
+        <v>20891</v>
+      </c>
+      <c r="F10">
+        <v>7344</v>
+      </c>
+      <c r="G10">
+        <v>6281</v>
+      </c>
+      <c r="H10">
+        <v>13469</v>
+      </c>
+      <c r="I10">
+        <v>25312</v>
+      </c>
+      <c r="J10">
+        <v>11312</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>43236.800754282405</v>
+      </c>
+      <c r="B11">
+        <v>5281</v>
+      </c>
+      <c r="C11">
+        <v>3297</v>
+      </c>
+      <c r="D11">
+        <v>10531</v>
+      </c>
+      <c r="E11">
+        <v>21063</v>
+      </c>
+      <c r="F11">
+        <v>7281</v>
+      </c>
+      <c r="G11">
+        <v>5922</v>
+      </c>
+      <c r="H11">
+        <v>13625</v>
+      </c>
+      <c r="I11">
+        <v>28609</v>
+      </c>
+      <c r="J11">
+        <v>10766</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>43236.863911342596</v>
+      </c>
+      <c r="B12">
+        <v>5297</v>
+      </c>
+      <c r="C12">
+        <v>2953</v>
+      </c>
+      <c r="D12">
+        <v>10500</v>
+      </c>
+      <c r="E12">
+        <v>20875</v>
+      </c>
+      <c r="F12">
+        <v>6953</v>
+      </c>
+      <c r="G12">
+        <v>6281</v>
+      </c>
+      <c r="H12">
+        <v>13234</v>
+      </c>
+      <c r="I12">
+        <v>28203</v>
+      </c>
+      <c r="J12">
+        <v>11266</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9944,4 +12956,1948 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E137"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>43230.875</v>
+      </c>
+      <c r="B2">
+        <v>20569.681</v>
+      </c>
+      <c r="C2">
+        <v>349646.19099999999</v>
+      </c>
+      <c r="D2">
+        <v>466292.97529999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>43229.916666666664</v>
+      </c>
+      <c r="B3">
+        <v>25766.8904</v>
+      </c>
+      <c r="C3">
+        <v>355602.24729999999</v>
+      </c>
+      <c r="D3">
+        <v>387795.91840000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>43230.958333333336</v>
+      </c>
+      <c r="B4">
+        <v>20140.7647</v>
+      </c>
+      <c r="C4">
+        <v>253455.65909999999</v>
+      </c>
+      <c r="D4">
+        <v>296220.88660000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>43229.791666666664</v>
+      </c>
+      <c r="B5">
+        <v>10026.4542</v>
+      </c>
+      <c r="C5">
+        <v>10150.1072</v>
+      </c>
+      <c r="D5">
+        <v>10209.608399999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>43229.708333333336</v>
+      </c>
+      <c r="B6">
+        <v>10049.2551</v>
+      </c>
+      <c r="C6">
+        <v>10121.2948</v>
+      </c>
+      <c r="D6">
+        <v>10236.579</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>43229.875</v>
+      </c>
+      <c r="B7">
+        <v>10028.840899999999</v>
+      </c>
+      <c r="C7">
+        <v>10089.5875</v>
+      </c>
+      <c r="D7">
+        <v>10181.531300000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>43229.083333333336</v>
+      </c>
+      <c r="B8">
+        <v>9965.7099999999991</v>
+      </c>
+      <c r="C8">
+        <v>10334.053900000001</v>
+      </c>
+      <c r="D8">
+        <v>10473.225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>43229</v>
+      </c>
+      <c r="B9">
+        <v>10052.6404</v>
+      </c>
+      <c r="C9">
+        <v>10322.680399999999</v>
+      </c>
+      <c r="D9">
+        <v>10323.1988</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>43228.958333333336</v>
+      </c>
+      <c r="B10">
+        <v>9925.0874000000003</v>
+      </c>
+      <c r="C10">
+        <v>10133.217000000001</v>
+      </c>
+      <c r="D10">
+        <v>10193.8986</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>43229.125</v>
+      </c>
+      <c r="B11">
+        <v>9963.2621999999992</v>
+      </c>
+      <c r="C11">
+        <v>10098.6677</v>
+      </c>
+      <c r="D11">
+        <v>10190.565500000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>43229.208333333336</v>
+      </c>
+      <c r="B12">
+        <v>9911.0591999999997</v>
+      </c>
+      <c r="C12">
+        <v>10115.8001</v>
+      </c>
+      <c r="D12">
+        <v>10258.0702</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>43229.291666666664</v>
+      </c>
+      <c r="B13">
+        <v>9879.1201000000001</v>
+      </c>
+      <c r="C13">
+        <v>10008.347299999999</v>
+      </c>
+      <c r="D13">
+        <v>10077.642400000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>43232.541666666664</v>
+      </c>
+      <c r="B14">
+        <v>34080.292849999998</v>
+      </c>
+      <c r="C14">
+        <v>350953.78720000002</v>
+      </c>
+      <c r="D14">
+        <v>351179.5723</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>43232.333333333336</v>
+      </c>
+      <c r="B15">
+        <v>35954.748299999999</v>
+      </c>
+      <c r="C15">
+        <v>349589.4927</v>
+      </c>
+      <c r="D15">
+        <v>361943.78619999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>43232.375</v>
+      </c>
+      <c r="B16">
+        <v>18672.123800000001</v>
+      </c>
+      <c r="C16">
+        <v>189969.67069999999</v>
+      </c>
+      <c r="D16">
+        <v>300185.77220000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>43232.791666666664</v>
+      </c>
+      <c r="B17">
+        <v>7196.1693999999998</v>
+      </c>
+      <c r="C17">
+        <v>7196.1693999999998</v>
+      </c>
+      <c r="D17">
+        <v>7196.1693999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>43229.75</v>
+      </c>
+      <c r="B18">
+        <v>10078.001099999999</v>
+      </c>
+      <c r="C18">
+        <v>10581.3663</v>
+      </c>
+      <c r="D18">
+        <v>11741.4349</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>43228.916666666664</v>
+      </c>
+      <c r="B19">
+        <v>10058.2737</v>
+      </c>
+      <c r="C19">
+        <v>10472.070400000001</v>
+      </c>
+      <c r="D19">
+        <v>10620.225399999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>43231.375</v>
+      </c>
+      <c r="B20">
+        <v>25828.095799999999</v>
+      </c>
+      <c r="C20">
+        <v>327605.49670000002</v>
+      </c>
+      <c r="D20">
+        <v>327840.75689999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>43231.166666666664</v>
+      </c>
+      <c r="B21">
+        <v>12560.8462</v>
+      </c>
+      <c r="C21">
+        <v>217777.2757</v>
+      </c>
+      <c r="D21">
+        <v>355966.54350000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>43231.208333333336</v>
+      </c>
+      <c r="B22">
+        <v>29953.267349999998</v>
+      </c>
+      <c r="C22">
+        <v>300428.87819999998</v>
+      </c>
+      <c r="D22">
+        <v>468622.26689999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>43231.083333333336</v>
+      </c>
+      <c r="B23">
+        <v>14177.7634</v>
+      </c>
+      <c r="C23">
+        <v>303380.41600000003</v>
+      </c>
+      <c r="D23">
+        <v>393213.17379999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>43231</v>
+      </c>
+      <c r="B24">
+        <v>16301.4609</v>
+      </c>
+      <c r="C24">
+        <v>45991.958200000001</v>
+      </c>
+      <c r="D24">
+        <v>56218.627</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>43231.041666666664</v>
+      </c>
+      <c r="B25">
+        <v>13220.300800000001</v>
+      </c>
+      <c r="C25">
+        <v>311832.85499999998</v>
+      </c>
+      <c r="D25">
+        <v>331977.6789</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>43231.458333333336</v>
+      </c>
+      <c r="B26">
+        <v>21180.230500000001</v>
+      </c>
+      <c r="C26">
+        <v>354001.37160000001</v>
+      </c>
+      <c r="D26">
+        <v>384168.35749999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>43232.291666666664</v>
+      </c>
+      <c r="B27">
+        <v>15384.153700000001</v>
+      </c>
+      <c r="C27">
+        <v>361952.82459999999</v>
+      </c>
+      <c r="D27">
+        <v>363645.34970000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>43232.041666666664</v>
+      </c>
+      <c r="B28">
+        <v>29255.721825000001</v>
+      </c>
+      <c r="C28">
+        <v>291148.46679999999</v>
+      </c>
+      <c r="D28">
+        <v>374428.1606</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>43232.083333333336</v>
+      </c>
+      <c r="B29">
+        <v>11315.937400000001</v>
+      </c>
+      <c r="C29">
+        <v>57716.315199999997</v>
+      </c>
+      <c r="D29">
+        <v>235565.77989999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>43232.125</v>
+      </c>
+      <c r="B30">
+        <v>13839.415499999999</v>
+      </c>
+      <c r="C30">
+        <v>343610.78739999997</v>
+      </c>
+      <c r="D30">
+        <v>355460.53749999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>43232</v>
+      </c>
+      <c r="B31">
+        <v>10877.972100000001</v>
+      </c>
+      <c r="C31">
+        <v>12366.418600000001</v>
+      </c>
+      <c r="D31">
+        <v>13109.647199999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>43232.5</v>
+      </c>
+      <c r="B32">
+        <v>12610.835999999999</v>
+      </c>
+      <c r="C32">
+        <v>305620.35129999998</v>
+      </c>
+      <c r="D32">
+        <v>315192.74570000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>43234.375</v>
+      </c>
+      <c r="B33">
+        <v>7295.2461999999996</v>
+      </c>
+      <c r="C33">
+        <v>7295.2461999999996</v>
+      </c>
+      <c r="D33">
+        <v>7295.2461999999996</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>43232.208333333336</v>
+      </c>
+      <c r="B34">
+        <v>28867.596099999999</v>
+      </c>
+      <c r="C34">
+        <v>344016.55829999998</v>
+      </c>
+      <c r="D34">
+        <v>382441.27299999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>43231.916666666664</v>
+      </c>
+      <c r="B35">
+        <v>29328.544999999998</v>
+      </c>
+      <c r="C35">
+        <v>366292.41019999998</v>
+      </c>
+      <c r="D35">
+        <v>419886.44390000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>43231.958333333336</v>
+      </c>
+      <c r="B36">
+        <v>19406.947800000002</v>
+      </c>
+      <c r="C36">
+        <v>321681.00530000002</v>
+      </c>
+      <c r="D36">
+        <v>341719.48499999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>43232.25</v>
+      </c>
+      <c r="B37">
+        <v>32103.291850000001</v>
+      </c>
+      <c r="C37">
+        <v>342610.70539999998</v>
+      </c>
+      <c r="D37">
+        <v>494569.47389999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>43234</v>
+      </c>
+      <c r="B38">
+        <v>6527.9567999999999</v>
+      </c>
+      <c r="C38">
+        <v>10262.197399999999</v>
+      </c>
+      <c r="D38">
+        <v>10262.197399999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>43233.583333333336</v>
+      </c>
+      <c r="B39">
+        <v>7431.9971999999998</v>
+      </c>
+      <c r="C39">
+        <v>7431.9971999999998</v>
+      </c>
+      <c r="D39">
+        <v>7431.9971999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>43233.625</v>
+      </c>
+      <c r="B40">
+        <v>7134.2902000000004</v>
+      </c>
+      <c r="C40">
+        <v>7134.2902000000004</v>
+      </c>
+      <c r="D40">
+        <v>7134.2902000000004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>43231.125</v>
+      </c>
+      <c r="B41">
+        <v>25349.886699999999</v>
+      </c>
+      <c r="C41">
+        <v>354956.47249999997</v>
+      </c>
+      <c r="D41">
+        <v>375940.67609999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>43230.833333333336</v>
+      </c>
+      <c r="B42">
+        <v>18369.2219</v>
+      </c>
+      <c r="C42">
+        <v>245478.3989</v>
+      </c>
+      <c r="D42">
+        <v>266924.77230000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>43231.25</v>
+      </c>
+      <c r="B43">
+        <v>18142.0939</v>
+      </c>
+      <c r="C43">
+        <v>332895.99410000001</v>
+      </c>
+      <c r="D43">
+        <v>336946.8982</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>43230.916666666664</v>
+      </c>
+      <c r="B44">
+        <v>12779.998600000001</v>
+      </c>
+      <c r="C44">
+        <v>330391.47110000002</v>
+      </c>
+      <c r="D44">
+        <v>330645.23790000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>43231.416666666664</v>
+      </c>
+      <c r="B45">
+        <v>9868.5869000000002</v>
+      </c>
+      <c r="C45">
+        <v>10341.2549</v>
+      </c>
+      <c r="D45">
+        <v>10501.265600000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>43231.708333333336</v>
+      </c>
+      <c r="B46">
+        <v>14830.675300000001</v>
+      </c>
+      <c r="C46">
+        <v>57450.231699999997</v>
+      </c>
+      <c r="D46">
+        <v>202806.019</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>43229.583333333336</v>
+      </c>
+      <c r="B47">
+        <v>10032.4936</v>
+      </c>
+      <c r="C47">
+        <v>10127.093500000001</v>
+      </c>
+      <c r="D47">
+        <v>10146.789199999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>43229.666666666664</v>
+      </c>
+      <c r="B48">
+        <v>10036.3815</v>
+      </c>
+      <c r="C48">
+        <v>10188.9863</v>
+      </c>
+      <c r="D48">
+        <v>10265.628000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>43229.625</v>
+      </c>
+      <c r="B49">
+        <v>10113.881299999999</v>
+      </c>
+      <c r="C49">
+        <v>10225.954900000001</v>
+      </c>
+      <c r="D49">
+        <v>10424.039500000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>43229.458333333336</v>
+      </c>
+      <c r="B50">
+        <v>10031.077300000001</v>
+      </c>
+      <c r="C50">
+        <v>10147.459500000001</v>
+      </c>
+      <c r="D50">
+        <v>10277.0129</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>43229.541666666664</v>
+      </c>
+      <c r="B51">
+        <v>10036.207700000001</v>
+      </c>
+      <c r="C51">
+        <v>10276.255800000001</v>
+      </c>
+      <c r="D51">
+        <v>10358.8933</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>43230.625</v>
+      </c>
+      <c r="B52">
+        <v>10120.1906</v>
+      </c>
+      <c r="C52">
+        <v>10404.273300000001</v>
+      </c>
+      <c r="D52">
+        <v>10971.7358</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>43230.416666666664</v>
+      </c>
+      <c r="B53">
+        <v>10344.070299999999</v>
+      </c>
+      <c r="C53">
+        <v>10695.086499999999</v>
+      </c>
+      <c r="D53">
+        <v>10835.9755</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>43230.208333333336</v>
+      </c>
+      <c r="B54">
+        <v>24929.785899999999</v>
+      </c>
+      <c r="C54">
+        <v>84090.870699999999</v>
+      </c>
+      <c r="D54">
+        <v>169485.7745</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>43230.25</v>
+      </c>
+      <c r="B55">
+        <v>12248.4375</v>
+      </c>
+      <c r="C55">
+        <v>343237.70549999998</v>
+      </c>
+      <c r="D55">
+        <v>343296.56430000003</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>43229.958333333336</v>
+      </c>
+      <c r="B56">
+        <v>19436.725050000001</v>
+      </c>
+      <c r="C56">
+        <v>234571.89019999999</v>
+      </c>
+      <c r="D56">
+        <v>300426.68459999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>43230.041666666664</v>
+      </c>
+      <c r="B57">
+        <v>19208.069100000001</v>
+      </c>
+      <c r="C57">
+        <v>322739.93939999997</v>
+      </c>
+      <c r="D57">
+        <v>339796.96360000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>43230.083333333336</v>
+      </c>
+      <c r="B58">
+        <v>24474.137699999999</v>
+      </c>
+      <c r="C58">
+        <v>52446.387499999997</v>
+      </c>
+      <c r="D58">
+        <v>61041.895499999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>43230.291666666664</v>
+      </c>
+      <c r="B59">
+        <v>11227.939700000001</v>
+      </c>
+      <c r="C59">
+        <v>357004.36940000003</v>
+      </c>
+      <c r="D59">
+        <v>357134.3064</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>43230.333333333336</v>
+      </c>
+      <c r="B60">
+        <v>14165.001249999999</v>
+      </c>
+      <c r="C60">
+        <v>316884.18709999998</v>
+      </c>
+      <c r="D60">
+        <v>321261.39870000002</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>43230.583333333336</v>
+      </c>
+      <c r="B61">
+        <v>28496.134750000001</v>
+      </c>
+      <c r="C61">
+        <v>335803.21230000001</v>
+      </c>
+      <c r="D61">
+        <v>381412.11349999998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>43230</v>
+      </c>
+      <c r="B62">
+        <v>24048.2268</v>
+      </c>
+      <c r="C62">
+        <v>491818.64789999998</v>
+      </c>
+      <c r="D62">
+        <v>503244.83250000002</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>43230.125</v>
+      </c>
+      <c r="B63">
+        <v>19897.128000000001</v>
+      </c>
+      <c r="C63">
+        <v>266743.78049999999</v>
+      </c>
+      <c r="D63">
+        <v>301360.8063</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>43230.166666666664</v>
+      </c>
+      <c r="B64">
+        <v>14669.648300000001</v>
+      </c>
+      <c r="C64">
+        <v>197672.26879999999</v>
+      </c>
+      <c r="D64">
+        <v>357278.3358</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>43230.458333333336</v>
+      </c>
+      <c r="B65">
+        <v>18651.107974999999</v>
+      </c>
+      <c r="C65">
+        <v>334180.90820000001</v>
+      </c>
+      <c r="D65">
+        <v>344471.61839999998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>43230.541666666664</v>
+      </c>
+      <c r="B66">
+        <v>10641.227199999999</v>
+      </c>
+      <c r="C66">
+        <v>11407.698</v>
+      </c>
+      <c r="D66">
+        <v>11723.573700000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>43230.75</v>
+      </c>
+      <c r="B67">
+        <v>32314.010200000001</v>
+      </c>
+      <c r="C67">
+        <v>72584.706099999996</v>
+      </c>
+      <c r="D67">
+        <v>83933.765299999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>43231.666666666664</v>
+      </c>
+      <c r="B68">
+        <v>10774.8933</v>
+      </c>
+      <c r="C68">
+        <v>11010.2667</v>
+      </c>
+      <c r="D68">
+        <v>12064.772199999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>43233.791666666664</v>
+      </c>
+      <c r="B69">
+        <v>6852.7048000000004</v>
+      </c>
+      <c r="C69">
+        <v>6852.7048000000004</v>
+      </c>
+      <c r="D69">
+        <v>6852.7048000000004</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>43234.291666666664</v>
+      </c>
+      <c r="B70">
+        <v>6973.9359999999997</v>
+      </c>
+      <c r="C70">
+        <v>6973.9359999999997</v>
+      </c>
+      <c r="D70">
+        <v>6973.9359999999997</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>43229.5</v>
+      </c>
+      <c r="B71">
+        <v>10151.062</v>
+      </c>
+      <c r="C71">
+        <v>10373.7737</v>
+      </c>
+      <c r="D71">
+        <v>10448.6162</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>43229.333333333336</v>
+      </c>
+      <c r="B72">
+        <v>9984.8369000000002</v>
+      </c>
+      <c r="C72">
+        <v>10301.667600000001</v>
+      </c>
+      <c r="D72">
+        <v>10543.373600000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>43229.375</v>
+      </c>
+      <c r="B73">
+        <v>10040.0659</v>
+      </c>
+      <c r="C73">
+        <v>10517.108</v>
+      </c>
+      <c r="D73">
+        <v>10615.0165</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>43229.041666666664</v>
+      </c>
+      <c r="B74">
+        <v>10037.8899</v>
+      </c>
+      <c r="C74">
+        <v>10241.2611</v>
+      </c>
+      <c r="D74">
+        <v>10353.119199999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>43231.833333333336</v>
+      </c>
+      <c r="B75">
+        <v>29536.018899999999</v>
+      </c>
+      <c r="C75">
+        <v>335395.84779999999</v>
+      </c>
+      <c r="D75">
+        <v>378776.40130000003</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>43231.75</v>
+      </c>
+      <c r="B76">
+        <v>18738.299074999999</v>
+      </c>
+      <c r="C76">
+        <v>323543.29889999999</v>
+      </c>
+      <c r="D76">
+        <v>323571.0049</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>43231.291666666664</v>
+      </c>
+      <c r="B77">
+        <v>17131.823899999999</v>
+      </c>
+      <c r="C77">
+        <v>59154.091999999997</v>
+      </c>
+      <c r="D77">
+        <v>101436.4522</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>43231.625</v>
+      </c>
+      <c r="B78">
+        <v>18562.1587</v>
+      </c>
+      <c r="C78">
+        <v>211053.81210000001</v>
+      </c>
+      <c r="D78">
+        <v>300328.83929999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>43230.5</v>
+      </c>
+      <c r="B79">
+        <v>10505.0026</v>
+      </c>
+      <c r="C79">
+        <v>10922.4437</v>
+      </c>
+      <c r="D79">
+        <v>11060.130499999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>43229.833333333336</v>
+      </c>
+      <c r="B80">
+        <v>10013.782499999999</v>
+      </c>
+      <c r="C80">
+        <v>10641.3398</v>
+      </c>
+      <c r="D80">
+        <v>10824.04</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>43230.666666666664</v>
+      </c>
+      <c r="B81">
+        <v>10136.170899999999</v>
+      </c>
+      <c r="C81">
+        <v>10430.771000000001</v>
+      </c>
+      <c r="D81">
+        <v>10444.5512</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>43229.416666666664</v>
+      </c>
+      <c r="B82">
+        <v>10171.8673</v>
+      </c>
+      <c r="C82">
+        <v>10336.596100000001</v>
+      </c>
+      <c r="D82">
+        <v>10615.368399999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>43229.166666666664</v>
+      </c>
+      <c r="B83">
+        <v>9915.7772000000004</v>
+      </c>
+      <c r="C83">
+        <v>10108.208699999999</v>
+      </c>
+      <c r="D83">
+        <v>10151.3568</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>43231.875</v>
+      </c>
+      <c r="B84">
+        <v>18906.0553</v>
+      </c>
+      <c r="C84">
+        <v>199950.2905</v>
+      </c>
+      <c r="D84">
+        <v>210245.2317</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>43232.416666666664</v>
+      </c>
+      <c r="B85">
+        <v>27635.6728</v>
+      </c>
+      <c r="C85">
+        <v>306237.48920000001</v>
+      </c>
+      <c r="D85">
+        <v>316381.02370000002</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>43232.458333333336</v>
+      </c>
+      <c r="B86">
+        <v>13715.6013</v>
+      </c>
+      <c r="C86">
+        <v>305936.25589999999</v>
+      </c>
+      <c r="D86">
+        <v>334667.04310000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>43232.166666666664</v>
+      </c>
+      <c r="B87">
+        <v>20140.693800000001</v>
+      </c>
+      <c r="C87">
+        <v>216513.2629</v>
+      </c>
+      <c r="D87">
+        <v>300572.48330000002</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>43230.375</v>
+      </c>
+      <c r="B88">
+        <v>14062.136500000001</v>
+      </c>
+      <c r="C88">
+        <v>306035.66310000001</v>
+      </c>
+      <c r="D88">
+        <v>424269.54499999998</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>43233.375</v>
+      </c>
+      <c r="B89">
+        <v>7218.7406000000001</v>
+      </c>
+      <c r="C89">
+        <v>7218.7406000000001</v>
+      </c>
+      <c r="D89">
+        <v>7218.7406000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>43234.125</v>
+      </c>
+      <c r="B90">
+        <v>7299.27</v>
+      </c>
+      <c r="C90">
+        <v>7299.27</v>
+      </c>
+      <c r="D90">
+        <v>7299.27</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>43231.5</v>
+      </c>
+      <c r="B91">
+        <v>10658.7053</v>
+      </c>
+      <c r="C91">
+        <v>11208.5082</v>
+      </c>
+      <c r="D91">
+        <v>11743.007900000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>43229.25</v>
+      </c>
+      <c r="B92">
+        <v>9877.7577999999994</v>
+      </c>
+      <c r="C92">
+        <v>10112.080400000001</v>
+      </c>
+      <c r="D92">
+        <v>10143.1913</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>43231.333333333336</v>
+      </c>
+      <c r="B93">
+        <v>26119.77565</v>
+      </c>
+      <c r="C93">
+        <v>320880.84620000003</v>
+      </c>
+      <c r="D93">
+        <v>321082.28980000003</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>43231.583333333336</v>
+      </c>
+      <c r="B94">
+        <v>10889.5363</v>
+      </c>
+      <c r="C94">
+        <v>12280.3051</v>
+      </c>
+      <c r="D94">
+        <v>12769.7889</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>43233.291666666664</v>
+      </c>
+      <c r="B95">
+        <v>6870.6758</v>
+      </c>
+      <c r="C95">
+        <v>6870.6758</v>
+      </c>
+      <c r="D95">
+        <v>6870.6758</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>43234.791666666664</v>
+      </c>
+      <c r="B96">
+        <v>6889.2453999999998</v>
+      </c>
+      <c r="C96">
+        <v>6889.2453999999998</v>
+      </c>
+      <c r="D96">
+        <v>6889.2453999999998</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>43232.916666666664</v>
+      </c>
+      <c r="B97">
+        <v>7895.6986999999999</v>
+      </c>
+      <c r="C97">
+        <v>7895.6986999999999</v>
+      </c>
+      <c r="D97">
+        <v>7895.6986999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>43233.416666666664</v>
+      </c>
+      <c r="B98">
+        <v>6804.5969999999998</v>
+      </c>
+      <c r="C98">
+        <v>6804.5969999999998</v>
+      </c>
+      <c r="D98">
+        <v>6804.5969999999998</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>43233.166666666664</v>
+      </c>
+      <c r="B99">
+        <v>7421.0896000000002</v>
+      </c>
+      <c r="C99">
+        <v>7421.0896000000002</v>
+      </c>
+      <c r="D99">
+        <v>7421.0896000000002</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>43232.833333333336</v>
+      </c>
+      <c r="B100">
+        <v>7622.5042000000003</v>
+      </c>
+      <c r="C100">
+        <v>7622.5042000000003</v>
+      </c>
+      <c r="D100">
+        <v>7622.5042000000003</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>43232.666666666664</v>
+      </c>
+      <c r="B101">
+        <v>8120.2039999999997</v>
+      </c>
+      <c r="C101">
+        <v>8120.2039999999997</v>
+      </c>
+      <c r="D101">
+        <v>8120.2039999999997</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>43234.875</v>
+      </c>
+      <c r="B102">
+        <v>9451.0740000000005</v>
+      </c>
+      <c r="C102">
+        <v>9451.0740000000005</v>
+      </c>
+      <c r="D102">
+        <v>9451.0740000000005</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>43230.791666666664</v>
+      </c>
+      <c r="B103">
+        <v>15074.514499999999</v>
+      </c>
+      <c r="C103">
+        <v>346630.60560000001</v>
+      </c>
+      <c r="D103">
+        <v>369374.92489999998</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>43234.708333333336</v>
+      </c>
+      <c r="B104">
+        <v>6750.9008999999996</v>
+      </c>
+      <c r="C104">
+        <v>6750.9008999999996</v>
+      </c>
+      <c r="D104">
+        <v>6750.9008999999996</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>43234.041666666664</v>
+      </c>
+      <c r="B105">
+        <v>6876.5388999999996</v>
+      </c>
+      <c r="C105">
+        <v>6876.5388999999996</v>
+      </c>
+      <c r="D105">
+        <v>6876.5388999999996</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>43234.25</v>
+      </c>
+      <c r="B106">
+        <v>7466.6652999999997</v>
+      </c>
+      <c r="C106">
+        <v>7466.6652999999997</v>
+      </c>
+      <c r="D106">
+        <v>7466.6652999999997</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>43233.25</v>
+      </c>
+      <c r="B107">
+        <v>7266.0123999999996</v>
+      </c>
+      <c r="C107">
+        <v>7266.0123999999996</v>
+      </c>
+      <c r="D107">
+        <v>7266.0123999999996</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>43231.791666666664</v>
+      </c>
+      <c r="B108">
+        <v>20104.032299999999</v>
+      </c>
+      <c r="C108">
+        <v>304766.45929999999</v>
+      </c>
+      <c r="D108">
+        <v>306910.02389999997</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>43231.541666666664</v>
+      </c>
+      <c r="B109">
+        <v>10629.100399999999</v>
+      </c>
+      <c r="C109">
+        <v>12507.4251</v>
+      </c>
+      <c r="D109">
+        <v>12977.759700000001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>43232.875</v>
+      </c>
+      <c r="B110">
+        <v>7270.1531999999997</v>
+      </c>
+      <c r="C110">
+        <v>7270.1531999999997</v>
+      </c>
+      <c r="D110">
+        <v>7270.1531999999997</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>43233.916666666664</v>
+      </c>
+      <c r="B111">
+        <v>7215.9522999999999</v>
+      </c>
+      <c r="C111">
+        <v>7215.9522999999999</v>
+      </c>
+      <c r="D111">
+        <v>7215.9522999999999</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>43234.458333333336</v>
+      </c>
+      <c r="B112">
+        <v>7341.8648000000003</v>
+      </c>
+      <c r="C112">
+        <v>7341.8648000000003</v>
+      </c>
+      <c r="D112">
+        <v>7341.8648000000003</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>43230.708333333336</v>
+      </c>
+      <c r="B113">
+        <v>13832.4329</v>
+      </c>
+      <c r="C113">
+        <v>379246.13640000002</v>
+      </c>
+      <c r="D113">
+        <v>379550.63559999998</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>43234.208333333336</v>
+      </c>
+      <c r="B114">
+        <v>7320.9219000000003</v>
+      </c>
+      <c r="C114">
+        <v>7320.9219000000003</v>
+      </c>
+      <c r="D114">
+        <v>7320.9219000000003</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>43234.833333333336</v>
+      </c>
+      <c r="B115">
+        <v>6434.4601000000002</v>
+      </c>
+      <c r="C115">
+        <v>6434.4601000000002</v>
+      </c>
+      <c r="D115">
+        <v>6434.4601000000002</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>43233.333333333336</v>
+      </c>
+      <c r="B116">
+        <v>7816.3092999999999</v>
+      </c>
+      <c r="C116">
+        <v>7816.3092999999999</v>
+      </c>
+      <c r="D116">
+        <v>7816.3092999999999</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>43232.708333333336</v>
+      </c>
+      <c r="B117">
+        <v>15494.7863</v>
+      </c>
+      <c r="C117">
+        <v>15494.7863</v>
+      </c>
+      <c r="D117">
+        <v>15494.7863</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>43233.458333333336</v>
+      </c>
+      <c r="B118">
+        <v>6956.1661000000004</v>
+      </c>
+      <c r="C118">
+        <v>6956.1661000000004</v>
+      </c>
+      <c r="D118">
+        <v>6956.1661000000004</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>43233.875</v>
+      </c>
+      <c r="B119">
+        <v>6968.3993</v>
+      </c>
+      <c r="C119">
+        <v>6968.3993</v>
+      </c>
+      <c r="D119">
+        <v>6968.3993</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>43232.75</v>
+      </c>
+      <c r="B120">
+        <v>6380.1979000000001</v>
+      </c>
+      <c r="C120">
+        <v>6380.1979000000001</v>
+      </c>
+      <c r="D120">
+        <v>6380.1979000000001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>43234.75</v>
+      </c>
+      <c r="B121">
+        <v>7040.4004000000004</v>
+      </c>
+      <c r="C121">
+        <v>11854.9625</v>
+      </c>
+      <c r="D121">
+        <v>11854.9625</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>43233.5</v>
+      </c>
+      <c r="B122">
+        <v>6699.3100999999997</v>
+      </c>
+      <c r="C122">
+        <v>6699.3100999999997</v>
+      </c>
+      <c r="D122">
+        <v>6699.3100999999997</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>43233</v>
+      </c>
+      <c r="B123">
+        <v>6426.2995000000001</v>
+      </c>
+      <c r="C123">
+        <v>10576.1963</v>
+      </c>
+      <c r="D123">
+        <v>10576.1963</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>43233.541666666664</v>
+      </c>
+      <c r="B124">
+        <v>6846.9633999999996</v>
+      </c>
+      <c r="C124">
+        <v>6846.9633999999996</v>
+      </c>
+      <c r="D124">
+        <v>6846.9633999999996</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>43233.708333333336</v>
+      </c>
+      <c r="B125">
+        <v>6661.2637999999997</v>
+      </c>
+      <c r="C125">
+        <v>6661.2637999999997</v>
+      </c>
+      <c r="D125">
+        <v>6661.2637999999997</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>43233.75</v>
+      </c>
+      <c r="B126">
+        <v>8209.6738999999998</v>
+      </c>
+      <c r="C126">
+        <v>8209.6738999999998</v>
+      </c>
+      <c r="D126">
+        <v>8209.6738999999998</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>43234.166666666664</v>
+      </c>
+      <c r="B127">
+        <v>7218.1553999999996</v>
+      </c>
+      <c r="C127">
+        <v>7218.1553999999996</v>
+      </c>
+      <c r="D127">
+        <v>7218.1553999999996</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>43233.666666666664</v>
+      </c>
+      <c r="B128">
+        <v>6681.8684000000003</v>
+      </c>
+      <c r="C128">
+        <v>6681.8684000000003</v>
+      </c>
+      <c r="D128">
+        <v>6681.8684000000003</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>43233.208333333336</v>
+      </c>
+      <c r="B129">
+        <v>7865.6539000000002</v>
+      </c>
+      <c r="C129">
+        <v>7865.6539000000002</v>
+      </c>
+      <c r="D129">
+        <v>7865.6539000000002</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>43234.583333333336</v>
+      </c>
+      <c r="B130">
+        <v>7370.6356999999998</v>
+      </c>
+      <c r="C130">
+        <v>7370.6356999999998</v>
+      </c>
+      <c r="D130">
+        <v>7370.6356999999998</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>43234.083333333336</v>
+      </c>
+      <c r="B131">
+        <v>6960.5689000000002</v>
+      </c>
+      <c r="C131">
+        <v>6960.5689000000002</v>
+      </c>
+      <c r="D131">
+        <v>6960.5689000000002</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>43233.083333333336</v>
+      </c>
+      <c r="B132">
+        <v>7935.0505000000003</v>
+      </c>
+      <c r="C132">
+        <v>7935.0505000000003</v>
+      </c>
+      <c r="D132">
+        <v>7935.0505000000003</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>43233.833333333336</v>
+      </c>
+      <c r="B133">
+        <v>7178.7987000000003</v>
+      </c>
+      <c r="C133">
+        <v>7178.7987000000003</v>
+      </c>
+      <c r="D133">
+        <v>7178.7987000000003</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>43232.583333333336</v>
+      </c>
+      <c r="B134">
+        <v>8155.8131000000003</v>
+      </c>
+      <c r="C134">
+        <v>8155.8131000000003</v>
+      </c>
+      <c r="D134">
+        <v>8155.8131000000003</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>43232.625</v>
+      </c>
+      <c r="B135">
+        <v>6772.5255999999999</v>
+      </c>
+      <c r="C135">
+        <v>6772.5255999999999</v>
+      </c>
+      <c r="D135">
+        <v>6772.5255999999999</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>43233.041666666664</v>
+      </c>
+      <c r="B136">
+        <v>6884.2936</v>
+      </c>
+      <c r="C136">
+        <v>6884.2936</v>
+      </c>
+      <c r="D136">
+        <v>6884.2936</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>43233.125</v>
+      </c>
+      <c r="B137">
+        <v>7741.6800999999996</v>
+      </c>
+      <c r="C137">
+        <v>7741.6800999999996</v>
+      </c>
+      <c r="D137">
+        <v>7741.6800999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/abs_results/median-processing-time-all-functions.xlsx
+++ b/abs_results/median-processing-time-all-functions.xlsx
@@ -4733,6 +4733,838 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Median processing time, recursive functions, 0 concurrency</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'sequential processing'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2 GB recursive function, AWS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'sequential processing'!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>mm:ss.0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>43235.924690046297</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43235.981364699073</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43236.056847569445</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43236.157742476855</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43236.218826736113</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43236.277465624997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43236.336012500004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43236.420894791663</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43236.600116203706</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43236.800754282405</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43236.863911342596</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'sequential processing'!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>3266</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3281</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3297</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3281</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3016</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3281</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2922</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3281</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3312</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3297</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2953</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'sequential processing'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>256 MB recursive function, AWS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'sequential processing'!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>mm:ss.0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>43235.924690046297</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43235.981364699073</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43236.056847569445</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43236.157742476855</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43236.218826736113</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43236.277465624997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43236.336012500004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43236.420894791663</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43236.600116203706</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43236.800754282405</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43236.863911342596</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'sequential processing'!$E$2:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>20719</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20672</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20953</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21109</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20969</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21141</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21219</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20984</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20891</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21063</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'sequential processing'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2 GB recursive function, Google</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'sequential processing'!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>mm:ss.0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>43235.924690046297</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43235.981364699073</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43236.056847569445</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43236.157742476855</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43236.218826736113</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43236.277465624997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43236.336012500004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43236.420894791663</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43236.600116203706</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43236.800754282405</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43236.863911342596</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'sequential processing'!$G$2:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>5422</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5484</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5516</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5344</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5515</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5344</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5437</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6281</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5922</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6281</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'sequential processing'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>256 MB recursive function, Google</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'sequential processing'!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>mm:ss.0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>43235.924690046297</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43235.981364699073</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43236.056847569445</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43236.157742476855</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43236.218826736113</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43236.277465624997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43236.336012500004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43236.420894791663</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43236.600116203706</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43236.800754282405</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43236.863911342596</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'sequential processing'!$I$2:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>22625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24703</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24734</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24891</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23906</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24094</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24391</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25312</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28609</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28203</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'sequential processing'!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Recursive function, Azure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'sequential processing'!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>mm:ss.0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>43235.924690046297</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43235.981364699073</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43236.056847569445</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43236.157742476855</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43236.218826736113</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43236.277465624997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43236.336012500004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43236.420894791663</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43236.600116203706</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43236.800754282405</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43236.863911342596</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'sequential processing'!$J$2:$J$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10609</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10953</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11156</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14266</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11062</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11094</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10656</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11141</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11312</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10766</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11266</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="65389496"/>
+        <c:axId val="65387536"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="65389496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="mm:ss.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="65387536"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="65387536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="65389496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
               <a:rPr lang="en-GB" sz="1800" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
@@ -5366,7 +6198,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7562,6 +8394,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -9627,6 +10499,522 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10242,6 +11630,41 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
+      <xdr:colOff>942975</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>52386</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1390651</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
@@ -10272,7 +11695,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -12324,7 +13747,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCellId="4" sqref="I1:J1048576 G1:G1048576 E1:E1048576 C1:C1048576 A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12723,6 +14146,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/abs_results/median-processing-time-all-functions.xlsx
+++ b/abs_results/median-processing-time-all-functions.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
   </bookViews>
   <sheets>
     <sheet name="median-processing-time-recur" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,12 @@
     <sheet name="median processing-time-linear" sheetId="2" r:id="rId3"/>
     <sheet name="Azure cold start error" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
   <si>
     <t>Date</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>c</t>
+  </si>
+  <si>
+    <t>Average</t>
   </si>
 </sst>
 </file>
@@ -565,10 +568,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2173,11 +2178,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="168612992"/>
-        <c:axId val="168191320"/>
+        <c:axId val="128201280"/>
+        <c:axId val="128201672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="168612992"/>
+        <c:axId val="128201280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2220,7 +2225,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="168191320"/>
+        <c:crossAx val="128201672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2228,7 +2233,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="168191320"/>
+        <c:axId val="128201672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2279,7 +2284,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="168612992"/>
+        <c:crossAx val="128201280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3903,11 +3908,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="217505760"/>
-        <c:axId val="217522528"/>
+        <c:axId val="128202456"/>
+        <c:axId val="711366256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="217505760"/>
+        <c:axId val="128202456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3950,7 +3955,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="217522528"/>
+        <c:crossAx val="711366256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3958,7 +3963,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="217522528"/>
+        <c:axId val="711366256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4009,7 +4014,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="217505760"/>
+        <c:crossAx val="128202456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4544,11 +4549,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="216915776"/>
-        <c:axId val="217599400"/>
+        <c:axId val="711367040"/>
+        <c:axId val="711367432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="216915776"/>
+        <c:axId val="711367040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4591,7 +4596,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="217599400"/>
+        <c:crossAx val="711367432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4599,7 +4604,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="217599400"/>
+        <c:axId val="711367432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4650,7 +4655,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="216915776"/>
+        <c:crossAx val="711367040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4733,9 +4738,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Median processing time, recursive functions, 0 concurrency</a:t>
+              <a:rPr lang="en-GB" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Single invocation duration, recursive functions</a:t>
             </a:r>
+            <a:endParaRPr lang="en-GB">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -4780,11 +4790,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'sequential processing'!$C$1</c:f>
+              <c:f>'sequential processing'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2 GB recursive function, AWS</c:v>
+                  <c:v>1 GB recursive function, AWS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4805,7 +4815,7 @@
             <c:numRef>
               <c:f>'sequential processing'!$A$2:$A$12</c:f>
               <c:numCache>
-                <c:formatCode>mm:ss.0</c:formatCode>
+                <c:formatCode>[$-409]h:mm:ss\ AM/PM;@</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>43235.924690046297</c:v>
@@ -4823,7 +4833,7 @@
                   <c:v>43236.218826736113</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43236.277465624997</c:v>
+                  <c:v>43236.277465277781</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>43236.336012500004</c:v>
@@ -4845,42 +4855,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'sequential processing'!$C$2:$C$12</c:f>
+              <c:f>'sequential processing'!$B$2:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>3266</c:v>
+                  <c:v>5219</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3281</c:v>
+                  <c:v>5281</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3297</c:v>
+                  <c:v>5391</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3281</c:v>
+                  <c:v>5375</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3016</c:v>
+                  <c:v>5422</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3281</c:v>
+                  <c:v>5297</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2922</c:v>
+                  <c:v>5266</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3281</c:v>
+                  <c:v>5297</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3312</c:v>
+                  <c:v>5297</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3297</c:v>
+                  <c:v>5281</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2953</c:v>
+                  <c:v>5297</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4892,11 +4902,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'sequential processing'!$E$1</c:f>
+              <c:f>'sequential processing'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>256 MB recursive function, AWS</c:v>
+                  <c:v>2 GB recursive function, AWS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4917,7 +4927,7 @@
             <c:numRef>
               <c:f>'sequential processing'!$A$2:$A$12</c:f>
               <c:numCache>
-                <c:formatCode>mm:ss.0</c:formatCode>
+                <c:formatCode>[$-409]h:mm:ss\ AM/PM;@</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>43235.924690046297</c:v>
@@ -4935,7 +4945,7 @@
                   <c:v>43236.218826736113</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43236.277465624997</c:v>
+                  <c:v>43236.277465277781</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>43236.336012500004</c:v>
@@ -4957,42 +4967,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'sequential processing'!$E$2:$E$12</c:f>
+              <c:f>'sequential processing'!$C$2:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>20719</c:v>
+                  <c:v>3266</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20672</c:v>
+                  <c:v>3281</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20953</c:v>
+                  <c:v>3297</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21109</c:v>
+                  <c:v>3281</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20969</c:v>
+                  <c:v>3016</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21141</c:v>
+                  <c:v>3281</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21219</c:v>
+                  <c:v>2922</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20984</c:v>
+                  <c:v>3281</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20891</c:v>
+                  <c:v>3312</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>21063</c:v>
+                  <c:v>3297</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20875</c:v>
+                  <c:v>2953</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5004,11 +5014,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'sequential processing'!$G$1</c:f>
+              <c:f>'sequential processing'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2 GB recursive function, Google</c:v>
+                  <c:v>512 MB recursive function, AWS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5029,7 +5039,7 @@
             <c:numRef>
               <c:f>'sequential processing'!$A$2:$A$12</c:f>
               <c:numCache>
-                <c:formatCode>mm:ss.0</c:formatCode>
+                <c:formatCode>[$-409]h:mm:ss\ AM/PM;@</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>43235.924690046297</c:v>
@@ -5047,7 +5057,7 @@
                   <c:v>43236.218826736113</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43236.277465624997</c:v>
+                  <c:v>43236.277465277781</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>43236.336012500004</c:v>
@@ -5069,42 +5079,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'sequential processing'!$G$2:$G$12</c:f>
+              <c:f>'sequential processing'!$D$2:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>5422</c:v>
+                  <c:v>10484</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5375</c:v>
+                  <c:v>10578</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5484</c:v>
+                  <c:v>10562</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5516</c:v>
+                  <c:v>10562</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5344</c:v>
+                  <c:v>10609</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5515</c:v>
+                  <c:v>10641</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5344</c:v>
+                  <c:v>10609</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5437</c:v>
+                  <c:v>10531</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6281</c:v>
+                  <c:v>10516</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5922</c:v>
+                  <c:v>10531</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6281</c:v>
+                  <c:v>10500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5116,11 +5126,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'sequential processing'!$I$1</c:f>
+              <c:f>'sequential processing'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>256 MB recursive function, Google</c:v>
+                  <c:v>256 MB recursive function, AWS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5141,7 +5151,7 @@
             <c:numRef>
               <c:f>'sequential processing'!$A$2:$A$12</c:f>
               <c:numCache>
-                <c:formatCode>mm:ss.0</c:formatCode>
+                <c:formatCode>[$-409]h:mm:ss\ AM/PM;@</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>43235.924690046297</c:v>
@@ -5159,7 +5169,7 @@
                   <c:v>43236.218826736113</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43236.277465624997</c:v>
+                  <c:v>43236.277465277781</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>43236.336012500004</c:v>
@@ -5181,42 +5191,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'sequential processing'!$I$2:$I$12</c:f>
+              <c:f>'sequential processing'!$E$2:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>22625</c:v>
+                  <c:v>20719</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24500</c:v>
+                  <c:v>20672</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24703</c:v>
+                  <c:v>20953</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24734</c:v>
+                  <c:v>21109</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24891</c:v>
+                  <c:v>20969</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23906</c:v>
+                  <c:v>21141</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24094</c:v>
+                  <c:v>21219</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24391</c:v>
+                  <c:v>20984</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25312</c:v>
+                  <c:v>20891</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>28609</c:v>
+                  <c:v>21063</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>28203</c:v>
+                  <c:v>20875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5228,11 +5238,11 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'sequential processing'!$J$1</c:f>
+              <c:f>'sequential processing'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Recursive function, Azure</c:v>
+                  <c:v>1 GB recursive function, Google</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5253,7 +5263,7 @@
             <c:numRef>
               <c:f>'sequential processing'!$A$2:$A$12</c:f>
               <c:numCache>
-                <c:formatCode>mm:ss.0</c:formatCode>
+                <c:formatCode>[$-409]h:mm:ss\ AM/PM;@</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>43235.924690046297</c:v>
@@ -5271,7 +5281,461 @@
                   <c:v>43236.218826736113</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43236.277465624997</c:v>
+                  <c:v>43236.277465277781</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43236.336012500004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43236.420894791663</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43236.600116203706</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43236.800754282405</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43236.863911342596</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'sequential processing'!$F$2:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>6922</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7078</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7281</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7187</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6844</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7094</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6859</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7281</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7344</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7281</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6953</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'sequential processing'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2 GB recursive function, Google</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'sequential processing'!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>[$-409]h:mm:ss\ AM/PM;@</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>43235.924690046297</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43235.981364699073</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43236.056847569445</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43236.157742476855</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43236.218826736113</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43236.277465277781</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43236.336012500004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43236.420894791663</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43236.600116203706</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43236.800754282405</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43236.863911342596</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'sequential processing'!$G$2:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>5422</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5484</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5516</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5344</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5515</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5344</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5437</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6281</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5922</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6281</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'sequential processing'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>512 MB recursive function, Google</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'sequential processing'!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>[$-409]h:mm:ss\ AM/PM;@</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>43235.924690046297</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43235.981364699073</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43236.056847569445</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43236.157742476855</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43236.218826736113</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43236.277465277781</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43236.336012500004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43236.420894791663</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43236.600116203706</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43236.800754282405</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43236.863911342596</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'sequential processing'!$H$2:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>12125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12312</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12109</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12687</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11984</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12234</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12953</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12672</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13469</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13625</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13234</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'sequential processing'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>256 MB recursive function, Google</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'sequential processing'!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>[$-409]h:mm:ss\ AM/PM;@</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>43235.924690046297</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43235.981364699073</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43236.056847569445</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43236.157742476855</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43236.218826736113</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43236.277465277781</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43236.336012500004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43236.420894791663</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43236.600116203706</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43236.800754282405</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43236.863911342596</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'sequential processing'!$I$2:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>22625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24703</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24734</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24891</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23906</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24094</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24391</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25312</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28609</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28203</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'sequential processing'!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Recursive function, Azure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'sequential processing'!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>[$-409]h:mm:ss\ AM/PM;@</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>43235.924690046297</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43235.981364699073</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43236.056847569445</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43236.157742476855</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43236.218826736113</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43236.277465277781</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>43236.336012500004</c:v>
@@ -5344,17 +5808,73 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="65389496"/>
-        <c:axId val="65387536"/>
+        <c:axId val="288749344"/>
+        <c:axId val="392081880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="65389496"/>
+        <c:axId val="288749344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="mm:ss.0" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Time of invocation</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="[$-409]h:mm:ss\ AM/PM;@" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5391,7 +5911,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65387536"/>
+        <c:crossAx val="392081880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5399,7 +5919,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65387536"/>
+        <c:axId val="392081880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5419,6 +5939,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Duration (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5450,7 +6026,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65389496"/>
+        <c:crossAx val="288749344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6011,16 +6587,72 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="217586600"/>
-        <c:axId val="65391456"/>
+        <c:axId val="654091840"/>
+        <c:axId val="654092232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="217586600"/>
+        <c:axId val="654091840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Time of invocation</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="[$-409]h:mm:ss\ AM/PM;@" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -6058,7 +6690,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65391456"/>
+        <c:crossAx val="654092232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6066,7 +6698,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65391456"/>
+        <c:axId val="654092232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6086,6 +6718,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Duration (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -6117,7 +6805,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="217586600"/>
+        <c:crossAx val="654091840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6238,7 +6926,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8007,11 +8694,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="65392240"/>
-        <c:axId val="217708520"/>
+        <c:axId val="647750136"/>
+        <c:axId val="647750528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="65392240"/>
+        <c:axId val="647750136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8054,7 +8741,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="217708520"/>
+        <c:crossAx val="647750528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8062,7 +8749,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="217708520"/>
+        <c:axId val="647750528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8113,7 +8800,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65392240"/>
+        <c:crossAx val="647750136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8127,7 +8814,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11629,20 +12315,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>942975</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>52386</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>738186</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>742949</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -11995,7 +12681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
       <selection activeCell="K1" sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
@@ -13744,15 +14430,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCellId="4" sqref="I1:J1048576 G1:G1048576 E1:E1048576 C1:C1048576 A1:A1048576"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3:M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="27" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="29.140625" bestFit="1" customWidth="1"/>
@@ -13760,7 +14446,7 @@
     <col min="10" max="10" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13792,8 +14478,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>43235.924690046297</v>
       </c>
       <c r="B2">
@@ -13823,9 +14509,12 @@
       <c r="J2">
         <v>10609</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="L2" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>43235.981364699073</v>
       </c>
       <c r="B3">
@@ -13855,9 +14544,16 @@
       <c r="J3">
         <v>10953</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="L3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="4">
+        <f>AVERAGE(C1:C11)</f>
+        <v>3223.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>43236.056847569445</v>
       </c>
       <c r="B4">
@@ -13887,9 +14583,16 @@
       <c r="J4">
         <v>11156</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="L4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="4">
+        <f>AVERAGE(B3:B13)</f>
+        <v>5320.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>43236.157742476855</v>
       </c>
       <c r="B5">
@@ -13919,9 +14622,16 @@
       <c r="J5">
         <v>14266</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="L5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M5" s="4">
+        <f>AVERAGE(G1:G9)</f>
+        <v>5429.625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>43236.218826736113</v>
       </c>
       <c r="B6">
@@ -13951,10 +14661,17 @@
       <c r="J6">
         <v>11062</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>43236.277465624997</v>
+      <c r="L6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="4">
+        <f>AVERAGE(F1:F11)</f>
+        <v>7117.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>43236.277465277781</v>
       </c>
       <c r="B7">
         <v>5297</v>
@@ -13983,9 +14700,16 @@
       <c r="J7">
         <v>11094</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="L7" t="s">
+        <v>5</v>
+      </c>
+      <c r="M7" s="4">
+        <f>AVERAGE(D4:D14)</f>
+        <v>10562.333333333334</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>43236.336012500004</v>
       </c>
       <c r="B8">
@@ -14015,9 +14739,16 @@
       <c r="J8">
         <v>10656</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="L8" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="4">
+        <f>AVERAGE(J3:J9)</f>
+        <v>11475.428571428571</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>43236.420894791663</v>
       </c>
       <c r="B9">
@@ -14047,9 +14778,16 @@
       <c r="J9">
         <v>11141</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="L9" t="s">
+        <v>7</v>
+      </c>
+      <c r="M9" s="4">
+        <f>AVERAGE(H5:H12)</f>
+        <v>12857.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>43236.600116203706</v>
       </c>
       <c r="B10">
@@ -14079,9 +14817,16 @@
       <c r="J10">
         <v>11312</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="L10" t="s">
+        <v>6</v>
+      </c>
+      <c r="M10" s="4">
+        <f>AVERAGE(E7:E16)</f>
+        <v>21028.833333333332</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>43236.800754282405</v>
       </c>
       <c r="B11">
@@ -14111,9 +14856,16 @@
       <c r="J11">
         <v>10766</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="L11" t="s">
+        <v>8</v>
+      </c>
+      <c r="M11" s="4">
+        <f>AVERAGE(I9:I13)</f>
+        <v>26628.75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>43236.863911342596</v>
       </c>
       <c r="B12">
@@ -14144,18 +14896,23 @@
         <v>11266</v>
       </c>
     </row>
+    <row r="13" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <sortState ref="L3:M11">
+    <sortCondition ref="M3"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:D1"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14376,9 +15133,27 @@
         <v>141</v>
       </c>
     </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="2">
+        <f>AVERAGE(B2:B15)</f>
+        <v>111.28571428571429</v>
+      </c>
+      <c r="C16" s="2">
+        <f>AVERAGE(C2:C15)</f>
+        <v>141</v>
+      </c>
+      <c r="D16" s="2">
+        <f>AVERAGE(D2:D15)</f>
+        <v>175.28571428571428</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
